--- a/data/GGG_04.xlsx
+++ b/data/GGG_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC59F43-90CB-BF49-A644-C9E9451BF3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A34966-70E4-604A-97C2-F9A5132FADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="1440" windowWidth="26440" windowHeight="14300" xr2:uid="{89B9639E-8FB7-794F-99C2-110A88CC91AC}"/>
+    <workbookView xWindow="9300" yWindow="1440" windowWidth="26440" windowHeight="14300" xr2:uid="{89B9639E-8FB7-794F-99C2-110A88CC91AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,12 +405,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>276</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
